--- a/biology/Botanique/Corallospartium_crassicaule/Corallospartium_crassicaule.xlsx
+++ b/biology/Botanique/Corallospartium_crassicaule/Corallospartium_crassicaule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corallospartium crassicaule est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire de Nouvelle-Zélande. C'est l'unique espèce acceptée du genre Corallospartium (genre monotypique).
-Certains auteurs classent cette espèce dans le genre Carmichaelia sous le nom de Carmichaelia crassicaulis Hook.f[4].
-L'espèce est endémique de l'île du Sud en Nouvelle-Zélande[5].
+Certains auteurs classent cette espèce dans le genre Carmichaelia sous le nom de Carmichaelia crassicaulis Hook.f.
+L'espèce est endémique de l'île du Sud en Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes de l'espèce Corallospartium crassicaule sont des arbustes raides pouvant atteindre 2 mètres de haut, aux branches robustes, subcylindriques, jaunâtres, et aux rameaux dressés profondément sillonnés, quelque peu aplatis, d'un diamètre atteignant 1 cm ou plus. Les feuilles, petites, rarement visibles, sont suborbiculaires à l'état juvénile, oblongues à maturité.
-Les inflorescences regroupent jusqu'à vingt fleurs de couleur crème, densément fasciculées. Le calice, en forme de cône fortement pileux, long de 4 mm environ, présente 5 dents. La corolle, papilionacée, présente un étendard de 5 à 6 mm de long, une carène d'environ 6 mm et de longues ailes incurvées, falciformes, plus fermes que la carène. L'ovaire villeux compte de 2 à 4 ovules. Le fruit est une gousse de 6 à 7 mm de long contenant une seule graine[4].
+Les inflorescences regroupent jusqu'à vingt fleurs de couleur crème, densément fasciculées. Le calice, en forme de cône fortement pileux, long de 4 mm environ, présente 5 dents. La corolle, papilionacée, présente un étendard de 5 à 6 mm de long, une carène d'environ 6 mm et de longues ailes incurvées, falciformes, plus fermes que la carène. L'ovaire villeux compte de 2 à 4 ovules. Le fruit est une gousse de 6 à 7 mm de long contenant une seule graine.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (18 novembre 2018)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (18 novembre 2018) :
 Corallospartium crassicaule var. crassicaule
 Corallospartium crassicaule var. racemosum  Kirk</t>
         </is>
